--- a/Nvprof summary/similarity results/Convolution-Similarity_new.xlsx
+++ b/Nvprof summary/similarity results/Convolution-Similarity_new.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/Nvprof summary/newsimilarity results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/Nvprof summary/similarity results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="480" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="29760" yWindow="-12220" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics1" sheetId="12" r:id="rId1"/>
     <sheet name="Metrics2" sheetId="13" r:id="rId2"/>
     <sheet name="Time1" sheetId="8" r:id="rId3"/>
-    <sheet name="Performance1" sheetId="9" r:id="rId4"/>
-    <sheet name="Time2" sheetId="10" r:id="rId5"/>
+    <sheet name="Time2" sheetId="10" r:id="rId4"/>
+    <sheet name="Performance1" sheetId="9" r:id="rId5"/>
     <sheet name="Performance2" sheetId="11" r:id="rId6"/>
     <sheet name="Source" sheetId="15" r:id="rId7"/>
   </sheets>
@@ -37,7 +37,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/convolutionSeparable/prof/1.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/convolutionSeparable/prof/1.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -61,7 +61,7 @@
     </textPr>
   </connection>
   <connection id="3" name="4" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/convolutionSeparable/prof/4.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/convolutionSeparable/prof/4.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="441">
   <si>
     <t>Kernel</t>
   </si>
@@ -1383,6 +1383,21 @@
   </si>
   <si>
     <t>Performance</t>
+  </si>
+  <si>
+    <t>SQSUM</t>
+  </si>
+  <si>
+    <t>DOT_1</t>
+  </si>
+  <si>
+    <t>DOT_2</t>
+  </si>
+  <si>
+    <t>COS_1</t>
+  </si>
+  <si>
+    <t>COS_2</t>
   </si>
 </sst>
 </file>
@@ -1718,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+    <sheetView topLeftCell="D58" workbookViewId="0">
+      <selection activeCell="M1" activeCellId="2" sqref="A1:A1048576 L1:L1048576 M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1734,7 +1749,7 @@
     <col min="7" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>433</v>
       </c>
@@ -1759,41 +1774,76 @@
       <c r="H1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J1" t="s">
+        <v>437</v>
+      </c>
+      <c r="K1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B2">
-        <f>B82/10^7</f>
+        <f t="shared" ref="B2:H2" si="0">B82/10^7</f>
         <v>6.9037962999999998</v>
       </c>
       <c r="C2">
-        <f>C82/10^7</f>
+        <f t="shared" si="0"/>
         <v>8.1580999999999997E-3</v>
       </c>
       <c r="D2">
-        <f>D82/10^7</f>
+        <f t="shared" si="0"/>
         <v>0.96075310000000003</v>
       </c>
       <c r="E2">
-        <f>E82/10^7</f>
+        <f t="shared" si="0"/>
         <v>0.96066750000000001</v>
       </c>
       <c r="F2">
-        <f>F82/10^7</f>
+        <f t="shared" si="0"/>
         <v>0.97990920000000004</v>
       </c>
       <c r="G2">
-        <f>G82/10^7</f>
+        <f t="shared" si="0"/>
         <v>0.96098450000000002</v>
       </c>
       <c r="H2">
-        <f>H82/10^7</f>
+        <f t="shared" si="0"/>
         <v>0.96073039999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>SQRT(B2^2+C2^2+D2^2+E2^2+F2^2+G2^2+H2^2)</f>
+        <v>7.2329188176125827</v>
+      </c>
+      <c r="J2">
+        <f>B2*$B$2+C2*$C$2+D2*$D$2+E2*$E$2+F2*$F$2+G2*$G$2+H2*$H$2</f>
+        <v>52.315114622174207</v>
+      </c>
+      <c r="K2">
+        <f>B2*$B$3+C2*$C$3+D2*$D$3+E2*$E$3+F2*$F$3+G2*$G$3+H2*$H$3</f>
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <f>J2/I2/$I$2</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M2">
+        <f>K2/I2/$I$3</f>
+        <v>7.8939706950838465E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>435</v>
       </c>
@@ -1802,31 +1852,51 @@
         <v>0.14484784262826528</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="0">1/C2</f>
+        <f t="shared" ref="C3:H3" si="1">1/C2</f>
         <v>122.57756095169219</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0408501414151043</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0409428860661987</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0205027159659283</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0405995101898105</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0408747344728553</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">SQRT(B3^2+C3^2+D3^2+E3^2+F3^2+G3^2+H3^2)</f>
+        <v>122.59956792019713</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="3">B3*$B$2+C3*$C$2+D3*$D$2+E3*$E$2+F3*$F$2+G3*$G$2+H3*$H$2</f>
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="4">B3*$B$3+C3*$C$3+D3*$D$3+E3*$E$3+F3*$F$3+G3*$G$3+H3*$H$3</f>
+        <v>15030.654054219029</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="5">J3/I3/$I$2</f>
+        <v>7.8939706950838465E-3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="6">K3/I3/$I$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -1851,8 +1921,28 @@
       <c r="H4" s="1">
         <v>0.99372101000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2.4648538132056559</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>11.687057401692188</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>51.517164899507975</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>0.65554184559652595</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>0.17047937645519015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -1877,8 +1967,28 @@
       <c r="H5">
         <v>1.199829</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>2.7791420070322066</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>7.6638367815217991</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>30.793858548872727</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>0.38126059177165106</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>9.0378354975971409E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -1903,8 +2013,28 @@
       <c r="H6">
         <v>0.96734500000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>2.2211446013780822</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>8.1017763036022998</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>12.838232513166313</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0.5043009940467984</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>4.7145415146589716E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -1929,8 +2059,28 @@
       <c r="H7">
         <v>35.279750999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>106.6004735320942</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>668.64777975098161</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>629.81528039094997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0.86721080914127935</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>4.8190909158282509E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -1955,8 +2105,28 @@
       <c r="H8">
         <v>28.341892000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>62.929874808550046</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>162.77519160869238</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>449.44537963322239</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0.35761667165318689</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>5.8254719146283572E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -1981,8 +2151,28 @@
       <c r="H9" s="1">
         <v>0.99372101000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>2.4648538132056559</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>11.687057401692188</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>51.517164899507975</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0.65554184559652595</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>0.17047937645519015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -2007,8 +2197,28 @@
       <c r="H10">
         <v>1.199829</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>2.7791420070322066</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>7.6638367815217991</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>30.793858548872727</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>0.38126059177165106</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>9.0378354975971409E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -2033,8 +2243,28 @@
       <c r="H11">
         <v>0.397976</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>1.6294581618719151</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>9.7434227417351007</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>97.206743234193439</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>0.82671295123429789</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>0.48659118766262294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -2059,8 +2289,28 @@
       <c r="H12">
         <v>0.26713199999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.70951875955889987</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>3.3225063738872995</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>35.024411522297399</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>0.64742333645633465</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>0.40264102671527535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -2085,8 +2335,28 @@
       <c r="H13">
         <v>5.7798000000000002E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.24046124512694347</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.53913606827040006</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>24.962085239307203</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>0.30998430471621757</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>0.84673367201565541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -2111,8 +2381,28 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.99996887999999995</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.97987870522569598</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>1.0204709579214075</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>0.13547908178007798</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2137,8 +2427,28 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>116.294213</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>113.9577692254596</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>118.67856021762017</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>0.13547908178007798</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>165</v>
       </c>
@@ -2163,8 +2473,28 @@
       <c r="H16">
         <v>46.355418</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>102.90949601797814</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>260.43389386230899</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>239.03128389677039</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>0.34988752831369285</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>1.8945686789999434E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -2189,8 +2519,28 @@
       <c r="H17">
         <v>37.173980999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>82.682156178913374</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>218.76348697839921</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>591.49459691564061</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>0.36580484473439201</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>5.8351234513042832E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -2215,8 +2565,28 @@
       <c r="H18">
         <v>28.341892000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>62.929874808550046</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>162.77519160869238</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>449.44537963322239</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>0.35761667165318689</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>5.8254719146283572E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -2241,8 +2611,28 @@
       <c r="H19">
         <v>35.279750999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>81.182380544448151</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>319.02375304063986</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>622.47985451808643</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>0.54330993553263296</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>6.2542405216041999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -2267,8 +2657,28 @@
       <c r="H20" s="1">
         <v>0.24999900999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0.66143570738986379</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>2.9337270774716462</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>31.97654147808985</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>0.61322306603655841</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>0.3943255460928457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>174</v>
       </c>
@@ -2293,8 +2703,28 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>4.1278980335946311</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>27.769622797921592</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>128.24259957891303</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>0.93009525581066665</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>0.25340455224310654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -2319,8 +2749,28 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>11.7349991</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>127.90617878243036</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0.61322584456426699</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>0.39432432167781784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -2345,8 +2795,28 @@
       <c r="H23" s="1">
         <v>0.11768944000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>1.3178889666798765</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>6.2164832195718382</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>123.30040941705192</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>0.65215728950137841</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>0.76312689014727264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>177</v>
       </c>
@@ -2371,8 +2841,28 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0.98076923000000005</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0.96106479155391611</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>1.0008776629508123</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>0.13547908178007798</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -2397,8 +2887,28 @@
       <c r="H25">
         <v>35.279750999999997</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>81.182380544448151</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>319.02375304063986</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>622.47985451808643</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0.54330993553263296</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>6.2542405216041999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -2423,8 +2933,28 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>3.6180000000000001E-3</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>3.5453114856000001E-3</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>3.6921788263647288E-3</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>0.13547908178007798</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>181</v>
       </c>
@@ -2449,8 +2979,28 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>11.7349991</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>127.90617878243036</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>0.61322584456426699</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>0.39432432167781784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -2475,8 +3025,28 @@
       <c r="H28">
         <v>1.677216</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>3.8799855408367185</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>11.9217981676774</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>50.743801619488153</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>0.42481326303752504</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>0.10667531987225601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>184</v>
       </c>
@@ -2501,8 +3071,28 @@
       <c r="H29">
         <v>310.70833299999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>862.27545017997784</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>4751.8090741854321</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>15130.688356298026</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>0.76190245060961448</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>0.14312771080725786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -2527,8 +3117,28 @@
       <c r="H30" s="1">
         <v>0.33213334</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0.78374879346114679</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>2.508250237054801</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>10.296037307167271</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>0.44246649093502582</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>0.10715298718015406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>188</v>
       </c>
@@ -2553,8 +3163,28 @@
       <c r="H31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>5.2915026221291814</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>23.469998199999999</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>255.81235756486072</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>0.61322584456426699</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>0.39432432167781784</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>189</v>
       </c>
@@ -2579,8 +3209,28 @@
       <c r="H32">
         <v>2.0000610000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>5.2916878299130614</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>23.4721459450735</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>255.81261380629306</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>0.61326049628689516</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>0.39431091539459795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -2605,8 +3255,28 @@
       <c r="H33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>6.094303955130643</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>17.051707000344297</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>500.83247562984968</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.38683891807527082</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0.67031576197127207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -2631,8 +3301,28 @@
       <c r="H34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>23.486314399999998</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>500.96747946824507</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.51341822865451281</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>0.64608639967821235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -2657,8 +3347,28 @@
       <c r="H35">
         <v>5382144</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>15339322.818997715</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>91619742.195932388</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>29608391.0380826</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0.82578936875986675</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>1.5744166753064087E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>193</v>
       </c>
@@ -2683,8 +3393,28 @@
       <c r="H36">
         <v>737304</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>1806034.9986337475</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>8646854.0651828982</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>3994959.7823629403</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>0.66193962050221578</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>1.804252475624147E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -2709,8 +3439,28 @@
       <c r="H37">
         <v>734208</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>5974629.4062490603</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>43200950.015911192</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>4752796.7031570133</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>0.99969779603947662</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>6.4885749630905574E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -2735,8 +3485,28 @@
       <c r="H38">
         <v>589824</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1444767.9833661874</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>6916777.5524327997</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>3222376.9428940024</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>0.66189958563157703</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>1.8192370529568149E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>197</v>
       </c>
@@ -2761,8 +3531,28 @@
       <c r="H39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>15.874507866387544</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>71.516449499999993</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>1129.1303593308417</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>0.62286235631773856</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>0.58016947430706023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -2787,8 +3577,28 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>5013504</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>4912778.6938367998</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>5116294.4485060452</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>0.13547908178007798</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>199</v>
       </c>
@@ -2813,8 +3623,28 @@
       <c r="H41">
         <v>1929408</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>4631094.8352161823</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>20848476.125515599</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>10255087.314087909</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>0.62241070203411586</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>1.8062037859997507E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -2839,8 +3669,28 @@
       <c r="H42">
         <v>1547257</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>3887514.7713557309</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>19654810.2336125</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>8390124.7462891079</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>0.69900971588131811</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>1.7603840551726379E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -2865,8 +3715,28 @@
       <c r="H43">
         <v>1468709</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>7262327.7540819515</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>51801515.1689355</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>8689176.6107969768</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>0.98617281651045507</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>9.7591914963202405E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -2891,8 +3761,28 @@
       <c r="H44">
         <v>1179717</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>2889603.9284187374</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>13833799.760995701</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>6366464.3250711048</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="5"/>
+        <v>0.66189572404854125</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>1.797095063330326E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -2917,8 +3807,28 @@
       <c r="H45" s="2">
         <v>1034.479</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>2306.3380443775895</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>6709.0318609771984</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>15460.142008848394</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>0.40218262162969365</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>5.4676609514057582E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>207</v>
       </c>
@@ -2943,8 +3853,28 @@
       <c r="H46">
         <v>141.71414200000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>314.84441729392705</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>813.94397936580458</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>2752.88412864264</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="5"/>
+        <v>0.35742500139759648</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>7.1318630560166324E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -2969,8 +3899,28 @@
       <c r="H47">
         <v>35.286808999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>81.238076475926533</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>319.10958701621593</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>707.5067675805534</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="5"/>
+        <v>0.54308352661896764</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>7.103657714002054E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>211</v>
       </c>
@@ -2995,8 +3945,28 @@
       <c r="H48">
         <v>28.343564000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>62.932809694037168</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>162.77936268850391</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>453.42930191391969</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="5"/>
+        <v>0.35760915754479217</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="6"/>
+        <v>5.8768353155663776E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -3021,8 +3991,28 @@
       <c r="H49">
         <v>151.221</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>36288.050986963477</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>1066.9003909447999</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>4448616.5962572806</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="5"/>
+        <v>4.0648698104780038E-3</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="6"/>
+        <v>0.99993643924330455</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>216</v>
       </c>
@@ -3047,8 +4037,28 @@
       <c r="H50" s="1">
         <v>0.99369719999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>2.6295069936799735</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>11.704117120311651</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>126.3795240197714</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="5"/>
+        <v>0.61539042996758242</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="6"/>
+        <v>0.39202471298169372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -3073,8 +4083,28 @@
       <c r="H51">
         <v>209631</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>936387.84758400195</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>2553852.2058079997</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>1774904.2652639966</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="5"/>
+        <v>0.37707383780708253</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="6"/>
+        <v>1.5460738144441504E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -3099,8 +4129,28 @@
       <c r="H52">
         <v>147456</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>831689.77697215928</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>1834289.0717687998</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>1441070.888336851</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="5"/>
+        <v>0.30492485420138082</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="6"/>
+        <v>1.4133022230805979E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -3125,8 +4175,28 @@
       <c r="H53">
         <v>7780520</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>30254795.995107006</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>207598301.79153237</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>45193175.98529198</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="5"/>
+        <v>0.94867176950690968</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="6"/>
+        <v>1.2183994500869324E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>220</v>
       </c>
@@ -3151,8 +4221,28 @@
       <c r="H54">
         <v>3721728</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>13819502.434036907</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>93133127.502038389</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>21743758.644350111</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="5"/>
+        <v>0.93174740081522411</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="6"/>
+        <v>1.2833741058323821E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -3177,8 +4267,28 @@
       <c r="H55">
         <v>320864256</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>785953709.43696845</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>3762724873.943923</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>1721200953.1356587</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="5"/>
+        <v>0.66189927556765082</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="6"/>
+        <v>1.7862641014510888E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -3203,8 +4313,28 @@
       <c r="H56">
         <v>160432128</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>392976854.71848422</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>1881362436.9719615</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>860600476.56782937</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="5"/>
+        <v>0.66189927556765082</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="6"/>
+        <v>1.7862641014510888E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>230</v>
       </c>
@@ -3229,8 +4359,28 @@
       <c r="H57" s="1">
         <v>2.5092969999999999E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>8.3625046903643044E-2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>0.165754635555557</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>7.4278221515621743</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="5"/>
+        <v>0.27404110998229236</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="6"/>
+        <v>0.72449631803518022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>231</v>
       </c>
@@ -3255,8 +4405,28 @@
       <c r="H58" s="1">
         <v>7.1945309999999998E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>0.31265354022270087</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>0.64858320165266714</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>32.347658555679132</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="5"/>
+        <v>0.28680634502053437</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="6"/>
+        <v>0.84389917062822095</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -3281,8 +4451,28 @@
       <c r="H59" s="1">
         <v>3.0939270000000001E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>0.85123785508545557</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>5.9597928001957881</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>14.11951922408084</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="5"/>
+        <v>0.96798057434103302</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="6"/>
+        <v>0.13529446845210208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>234</v>
       </c>
@@ -3307,8 +4497,28 @@
       <c r="H60" s="1">
         <v>8.6729059999999997E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>0.19245482220420071</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>0.42746140939183302</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>2.470803130385169</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="5"/>
+        <v>0.30708211660078899</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="6"/>
+        <v>0.1047177749987501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>235</v>
       </c>
@@ -3333,8 +4543,28 @@
       <c r="H61" s="1">
         <v>1.4897759999999999E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>5.2073931650835618E-2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>0.11106305310303201</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>2.8582583807275839</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="5"/>
+        <v>0.2948734348068639</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="6"/>
+        <v>0.44770523979080645</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -3359,8 +4589,28 @@
       <c r="H62">
         <v>11453952</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>31530363.445611469</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>175137857.00720161</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>64456948.432759367</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="5"/>
+        <v>0.76795799123061159</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="6"/>
+        <v>1.667446177819723E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>249</v>
       </c>
@@ -3385,8 +4635,28 @@
       <c r="H63">
         <v>16012349</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>51836307.596961156</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>331737456.31382805</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>91581351.775221765</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="5"/>
+        <v>0.88480356003554128</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="6"/>
+        <v>1.4410665972059785E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>250</v>
       </c>
@@ -3411,8 +4681,28 @@
       <c r="H64">
         <v>12683479</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>44963273.129555926</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>297381704.64733189</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>74306477.036191493</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="5"/>
+        <v>0.914413728171377</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="6"/>
+        <v>1.3479687166248618E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>257</v>
       </c>
@@ -3437,8 +4727,28 @@
       <c r="H65">
         <v>160432128</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>392976854.71848422</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>1881362436.9719615</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>860600476.56782937</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="5"/>
+        <v>0.66189927556765082</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="6"/>
+        <v>1.7862641014510888E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>259</v>
       </c>
@@ -3463,8 +4773,28 @@
       <c r="H66">
         <v>69378048</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>157099498.5879041</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>505638884.37133437</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>369511917.96575111</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="5"/>
+        <v>0.44499186839979948</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="6"/>
+        <v>1.9185128476310136E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>261</v>
       </c>
@@ -3489,8 +4819,28 @@
       <c r="H67">
         <v>1228800</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f t="shared" ref="I67:I82" si="7">SQRT(B67^2+C67^2+D67^2+E67^2+F67^2+G67^2+H67^2)</f>
+        <v>2990204.8254766762</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J82" si="8">B67*$B$2+C67*$C$2+D67*$D$2+E67*$E$2+F67*$F$2+G67*$G$2+H67*$H$2</f>
+        <v>14070630.3203904</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K82" si="9">B67*$B$3+C67*$C$3+D67*$D$3+E67*$E$3+F67*$F$3+G67*$G$3+H67*$H$3</f>
+        <v>6893709.4047910627</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L82" si="10">J67/I67/$I$2</f>
+        <v>0.65057747758118145</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M82" si="11">K67/I67/$I$3</f>
+        <v>1.8804556482037774E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>262</v>
       </c>
@@ -3515,8 +4865,28 @@
       <c r="H68">
         <v>119095296</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f t="shared" si="7"/>
+        <v>448862293.3286531</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="8"/>
+        <v>2999232524.0491004</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="9"/>
+        <v>716251215.29090607</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="10"/>
+        <v>0.92381162364440494</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="11"/>
+        <v>1.3015573476765043E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>263</v>
       </c>
@@ -3541,8 +4911,28 @@
       <c r="H69">
         <v>14082048</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f t="shared" si="7"/>
+        <v>45983881.333826005</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="8"/>
+        <v>192286331.15448961</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="9"/>
+        <v>97093117.660855606</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="10"/>
+        <v>0.5781349130395913</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="11"/>
+        <v>1.7222408306210361E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>268</v>
       </c>
@@ -3567,8 +4957,28 @@
       <c r="H70">
         <v>1468416</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <f t="shared" si="7"/>
+        <v>7260640.703378181</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="8"/>
+        <v>51789682.030605599</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="9"/>
+        <v>8664665.5708550625</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="10"/>
+        <v>0.98617663326024418</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="11"/>
+        <v>9.7339232896222708E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>269</v>
       </c>
@@ -3593,8 +5003,28 @@
       <c r="H71">
         <v>1179672</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <f t="shared" si="7"/>
+        <v>2889561.0602612295</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="8"/>
+        <v>13833609.382937798</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="9"/>
+        <v>6365388.1613524575</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="10"/>
+        <v>0.66189643460442538</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="11"/>
+        <v>1.7968179453325569E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>270</v>
       </c>
@@ -3619,8 +5049,28 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="8"/>
+        <v>152.86583519999999</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="9"/>
+        <v>159.19842369068482</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="10"/>
+        <v>0.13547908178007798</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="11"/>
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -3645,8 +5095,28 @@
       <c r="H73">
         <v>28.342490999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <f t="shared" si="7"/>
+        <v>62.930550987904468</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>162.77664037216431</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="9"/>
+        <v>449.44694929179468</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="10"/>
+        <v>0.35761601201092935</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="11"/>
+        <v>5.8254296656650481E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>273</v>
       </c>
@@ -3671,8 +5141,28 @@
       <c r="H74">
         <v>1001437</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <f t="shared" si="7"/>
+        <v>2488503.2231461946</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="8"/>
+        <v>12263107.9068333</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="9"/>
+        <v>5383185.4056787826</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="10"/>
+        <v>0.68131625661091566</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="11"/>
+        <v>1.7644615165576857E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>274</v>
       </c>
@@ -3697,8 +5187,28 @@
       <c r="H75">
         <v>24.060267</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <f t="shared" si="7"/>
+        <v>53.513930763972716</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="8"/>
+        <v>140.13692894180136</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="9"/>
+        <v>220.03135034535987</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="10"/>
+        <v>0.36205300198619217</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="11"/>
+        <v>3.3537352223733108E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>276</v>
       </c>
@@ -3723,8 +5233,28 @@
       <c r="H76" s="1">
         <v>0.38956811000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f t="shared" si="7"/>
+        <v>0.85675388087045801</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="8"/>
+        <v>1.9096656520185851</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="9"/>
+        <v>2.3754615346781658</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="10"/>
+        <v>0.30816808942094037</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="11"/>
+        <v>2.2615332767214641E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>277</v>
       </c>
@@ -3749,8 +5279,28 @@
       <c r="H77" s="1">
         <v>3.9554999999999999E-4</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <f t="shared" si="7"/>
+        <v>0.1996778274300294</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="8"/>
+        <v>3.9151274053380002E-3</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="9"/>
+        <v>24.477915184089277</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="10"/>
+        <v>2.7108311410552048E-3</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="11"/>
+        <v>0.99989787011214404</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>278</v>
       </c>
@@ -3775,8 +5325,28 @@
       <c r="H78" s="1">
         <v>8.6973839999999997E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <f t="shared" si="7"/>
+        <v>0.19411604972029439</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="8"/>
+        <v>0.50137495076073002</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="9"/>
+        <v>0.81610115881819201</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="10"/>
+        <v>0.35709814726188427</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>3.4292062779946224E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>280</v>
       </c>
@@ -3801,8 +5371,28 @@
       <c r="H79" s="1">
         <v>0.15521166</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <f t="shared" si="7"/>
+        <v>0.48191856586126908</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="8"/>
+        <v>1.3585848856106071</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="9"/>
+        <v>40.308960634044809</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="10"/>
+        <v>0.38976203160015177</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>0.68224286532585432</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>281</v>
       </c>
@@ -3827,8 +5417,28 @@
       <c r="H80" s="1">
         <v>0.22522032</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <f t="shared" si="7"/>
+        <v>0.49875700660878369</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="8"/>
+        <v>1.148131598067232</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="9"/>
+        <v>1.517647237991985</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="10"/>
+        <v>0.31826513758959335</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>2.4819491902105813E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -3853,8 +5463,28 @@
       <c r="H81">
         <v>14.831276000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <f t="shared" si="7"/>
+        <v>32.853258593646494</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="8"/>
+        <v>76.490187236150305</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="9"/>
+        <v>111.54971651545978</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="10"/>
+        <v>0.32189459269823401</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="11"/>
+        <v>2.7694981491279705E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B82" s="3">
         <v>69037963</v>
       </c>
@@ -3875,6 +5505,26 @@
       </c>
       <c r="H82" s="3">
         <v>9607304</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="7"/>
+        <v>72329188.176125839</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="8"/>
+        <v>523151146.22174203</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="9"/>
+        <v>70000000</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="10"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="11"/>
+        <v>7.8939706950838448E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3884,10 +5534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" activeCellId="1" sqref="A1:A1048576 L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3898,7 +5548,7 @@
     <col min="4" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>434</v>
       </c>
@@ -3923,41 +5573,76 @@
       <c r="H1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J1" t="s">
+        <v>437</v>
+      </c>
+      <c r="K1" t="s">
+        <v>438</v>
+      </c>
+      <c r="L1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B2">
-        <f>B82/10^7</f>
+        <f t="shared" ref="B2:H2" si="0">B82/10^7</f>
         <v>6.9023067999999999</v>
       </c>
       <c r="C2">
-        <f>C82/10^7</f>
+        <f t="shared" si="0"/>
         <v>1.43118E-2</v>
       </c>
       <c r="D2">
-        <f>D82/10^7</f>
+        <f t="shared" si="0"/>
         <v>1.1399706999999999</v>
       </c>
       <c r="E2">
-        <f>E82/10^7</f>
+        <f t="shared" si="0"/>
         <v>1.1428613000000001</v>
       </c>
       <c r="F2">
-        <f>F82/10^7</f>
+        <f t="shared" si="0"/>
         <v>1.3631001</v>
       </c>
       <c r="G2">
-        <f>G82/10^7</f>
+        <f t="shared" si="0"/>
         <v>1.2039200000000001</v>
       </c>
       <c r="H2">
-        <f>H82/10^7</f>
+        <f t="shared" si="0"/>
         <v>1.3543365000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>SQRT(B2^2+C2^2+D2^2+E2^2+F2^2+G2^2+H2^2)</f>
+        <v>7.4424056420685591</v>
+      </c>
+      <c r="J2">
+        <f>B2*$B$2+C2*$C$2+D2*$D$2+E2*$E$2+F2*$F$2+G2*$G$2+H2*$H$2</f>
+        <v>55.38940174109392</v>
+      </c>
+      <c r="K2">
+        <f>B2*$B$3+C2*$C$3+D2*$D$3+E2*$E$3+F2*$F$3+G2*$G$3+H2*$H$3</f>
+        <v>7</v>
+      </c>
+      <c r="L2">
+        <f>J2/I2/$I$2</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>K2/I2/$I$3</f>
+        <v>1.3456463137890043E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>435</v>
       </c>
@@ -3966,31 +5651,51 @@
         <v>0.14487910041900776</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:H3" si="0">1/C2</f>
+        <f t="shared" ref="C3:H3" si="1">1/C2</f>
         <v>69.872412973909647</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87721552843419581</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8749968171990774</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73362183745713172</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83061997474915272</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7383689356374874</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="2">SQRT(B3^2+C3^2+D3^2+E3^2+F3^2+G3^2+H3^2)</f>
+        <v>69.896234022239781</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="3">B3*$B$2+C3*$C$2+D3*$D$2+E3*$E$2+F3*$F$2+G3*$G$2+H3*$H$2</f>
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="4">B3*$B$3+C3*$C$3+D3*$D$3+E3*$E$3+F3*$F$3+G3*$G$3+H3*$H$3</f>
+        <v>4885.4835304917106</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="5">J3/I3/$I$2</f>
+        <v>1.3456463137890043E-2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="6">K3/I3/$I$3</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -4015,8 +5720,28 @@
       <c r="H4" s="1">
         <v>0.99514128999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2.5221240882368523</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>13.071063445527356</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>49.129681484387923</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>0.69635570102224564</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>0.27869149915233032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -4041,8 +5766,28 @@
       <c r="H5">
         <v>0.88358199999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>2.3547855648328153</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>8.1020385639547996</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>9.5423894631182122</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>0.462306078796826</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>5.7976500330184866E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -4067,8 +5812,28 @@
       <c r="H6">
         <v>0.48422199999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1.4678055020952196</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>9.8286784214578002</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>6.4036765365139177</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0.89973222878873138</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>6.241760471615565E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -4093,8 +5858,28 @@
       <c r="H7">
         <v>24.960063999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>80.429779403100497</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>568.07312197036993</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>47.462844422104801</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>0.94901707542323854</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>8.4427340177288673E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -4119,8 +5904,28 @@
       <c r="H8">
         <v>20.135850000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>49.448712772161727</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>162.86770944225421</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>174.62697682414048</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>0.44255439761139242</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>5.0524563245028881E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -4145,8 +5950,28 @@
       <c r="H9" s="1">
         <v>0.99514128999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>2.5221240882368523</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>13.071063445527356</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>49.129681484387923</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>0.69635570102224564</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>0.27869149915233032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -4171,8 +5996,28 @@
       <c r="H10">
         <v>0.88358199999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>2.3547855648328153</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>8.1020385639547996</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>9.5423894631182122</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>0.462306078796826</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>5.7976500330184866E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -4197,8 +6042,28 @@
       <c r="H11">
         <v>0.54409399999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>3.4072883084405992</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>15.294863598112398</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>190.73051750502424</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>0.60314729995517191</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>0.80086170484687069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -4223,8 +6088,28 @@
       <c r="H12">
         <v>0.43034099999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.96450544956936346</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>3.7737903055983004</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>21.549877750589243</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>0.52572634589885281</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>0.31965856700323819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -4249,8 +6134,28 @@
       <c r="H13">
         <v>5.5469999999999998E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.16657015659174965</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.49750874277719997</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>9.8163192127069738</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>0.40131942917737229</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>0.84313613336230608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -4275,8 +6180,28 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1.3228521311803729</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>3.106433680324888</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>2.0250151673367629</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>0.31552766803072352</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>2.1900962537594659E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -4301,8 +6226,28 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>130.59131623726398</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>315.71754605225919</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>210.92025771897835</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>0.32484118207017237</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>2.3107353981580328E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>165</v>
       </c>
@@ -4327,8 +6272,28 @@
       <c r="H16">
         <v>28.830573000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>65.239525973577017</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>226.82578229785739</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>118.68270992821049</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>0.46716283292120847</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>2.6026926196403725E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -4353,8 +6318,28 @@
       <c r="H17">
         <v>25.715440999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>63.608058440660173</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>214.06112283208421</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>295.42664476844368</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>0.45218101304406288</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>6.6448280315978631E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -4379,8 +6364,28 @@
       <c r="H18">
         <v>20.135850000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>49.492982762616208</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>162.8850027479892</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>259.05556023083983</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>0.44220549438795015</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>7.4885117135500501E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -4405,8 +6410,28 @@
       <c r="H19">
         <v>24.960063999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>41.187569160562198</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>218.97318153163411</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>40.384359903841982</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>0.71435062665238602</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>1.4027919522423528E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>173</v>
       </c>
@@ -4431,8 +6456,28 @@
       <c r="H20" s="1">
         <v>0.24999679999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0.63401684271281067</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>3.3045892281361771</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>9.8020516879649477</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>0.70033099976497215</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>0.22118843529799792</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>174</v>
       </c>
@@ -4457,8 +6502,28 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>3.6778599492291177</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>26.48848884827682</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>2.5414001300752318</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>0.96771764091958745</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>9.8860791569340412E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -4483,8 +6548,28 @@
       <c r="H22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>13.113651300000001</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>39.135908680850882</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="5"/>
+        <v>0.70480712450686367</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>0.22396576426935111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -4509,8 +6594,28 @@
       <c r="H23" s="1">
         <v>0.19327731000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>1.302623615994807</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>7.1736967142588934</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>1.2293597194804904</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="5"/>
+        <v>0.73996423140513368</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>1.3502253420723209E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>177</v>
       </c>
@@ -4535,8 +6640,28 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>1.0363284412758831</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>2.0107966826870434</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>1.2187166076985898</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="5"/>
+        <v>0.26070982954166988</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>1.6824862954237404E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -4561,8 +6686,28 @@
       <c r="H25">
         <v>24.960063999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>41.187569160562198</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>218.97318153163411</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>40.384359903841982</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="5"/>
+        <v>0.71435062665238602</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>1.4027919522423528E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>179</v>
       </c>
@@ -4587,8 +6732,28 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>50.11519395125994</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>100.80733684385172</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>74.754988740939496</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>0.27027718620329694</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>2.1341109205818987E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>181</v>
       </c>
@@ -4613,8 +6778,28 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>2.5573218884484232</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>13.117011362004552</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>55.540249155144814</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>0.68918554777400431</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>0.31071960136948257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4639,8 +6824,28 @@
       <c r="H28">
         <v>1.364166</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>3.5511943807827526</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>14.191994729141099</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>26.115614493606646</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>0.53697696903688352</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>0.10521363556636715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>184</v>
       </c>
@@ -4665,8 +6870,28 @@
       <c r="H29">
         <v>323</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>908.82749633890307</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>5276.1116956825654</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>10556.756028196862</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>0.78004415291678997</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>0.16618631200335415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -4691,8 +6916,28 @@
       <c r="H30" s="1">
         <v>0.28563799000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0.76426846619960498</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>3.1393899328167385</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>5.9737692602300552</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="5"/>
+        <v>0.55193251950753119</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>0.11182752834309304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>188</v>
       </c>
@@ -4717,8 +6962,28 @@
       <c r="H31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>5.2886863866530227</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>26.232629545039998</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>148.13803141873981</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
+        <v>0.66647010630739634</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>0.40074210741276528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>189</v>
       </c>
@@ -4743,8 +7008,28 @@
       <c r="H32">
         <v>2.0003690000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>5.2739544760593073</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>26.1852372329217</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>148.1051930636211</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>0.66712435969412254</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>0.40177243126595746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -4769,8 +7054,28 @@
       <c r="H33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>3.1845107824482239</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>14.012023686043602</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>3.9293652877416863</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.59121412558277697</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>1.7653300084889717E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>191</v>
       </c>
@@ -4795,8 +7100,28 @@
       <c r="H34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>6.324555320336759</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>26.270238000000003</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>287.88905628343065</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.55811111856848972</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>0.65124047384468597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -4821,8 +7146,28 @@
       <c r="H35">
         <v>9510912</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>22083382.422049392</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>96556177.522259995</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>39839245.968850173</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0.58749088663186455</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>2.5810221994926982E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>193</v>
       </c>
@@ -4847,8 +7192,28 @@
       <c r="H36">
         <v>737411</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>1813666.5654901951</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>9685706.3898411002</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>3172223.8811381292</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>0.71756379103290668</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>2.5023762326832805E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -4873,8 +7238,28 @@
       <c r="H37">
         <v>731136</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>5840004.5098064775</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>41681478.001459196</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>1924258.7772794196</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>0.95899554734053594</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>4.7140753165875095E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>195</v>
       </c>
@@ -4899,8 +7284,28 @@
       <c r="H38">
         <v>589824</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1444768.4193226262</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>7730544.0909024002</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>2567639.794026732</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>0.71894966274484617</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>2.5426236435039967E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>197</v>
       </c>
@@ -4925,8 +7330,28 @@
       <c r="H39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>10.816653826391969</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>35.407928699999999</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>228.46724457914655</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>0.43983952551574695</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>0.3021880152578903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>198</v>
       </c>
@@ -4951,8 +7376,28 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>7126997.6274602478</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>17031067.444838401</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>11231622.782159181</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>0.32108640480545964</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>2.2546654928094111E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>199</v>
       </c>
@@ -4977,8 +7422,28 @@
       <c r="H41">
         <v>1689023</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>4056010.8302963148</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>23815371.036072899</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>6605995.9001970086</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>0.78894169517491053</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>2.3301582523210254E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>200</v>
       </c>
@@ -5003,8 +7468,28 @@
       <c r="H42">
         <v>1506525</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>3801772.9772920422</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>21331945.688989799</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>6487768.0775196385</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>0.75392987467049932</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>2.4414923074212405E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>201</v>
       </c>
@@ -5029,8 +7514,28 @@
       <c r="H43">
         <v>1462616</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>7271741.3724020738</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>53882084.469892904</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>7077792.3573889658</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>0.99561774133897529</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>1.392533386689572E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -5055,8 +7560,28 @@
       <c r="H44">
         <v>1179707</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>2889584.5503924955</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>15461274.005099401</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>5045091.2964856867</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="5"/>
+        <v>0.71894643246438994</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>2.4979275980558092E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -5081,8 +7606,28 @@
       <c r="H45" s="2">
         <v>1298.7619999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>3205.4960418879855</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>9798.334680397682</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>9108.5396619536896</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>0.41071795350961315</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>4.0653667610907405E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>207</v>
       </c>
@@ -5107,8 +7652,28 @@
       <c r="H46">
         <v>100.697169</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>248.82464600663022</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>817.88974665194382</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="4"/>
+        <v>1353.9379132011161</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="5"/>
+        <v>0.44165996295218779</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>7.7848738229554501E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>209</v>
       </c>
@@ -5133,8 +7698,28 @@
       <c r="H47">
         <v>24.965949999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>65.484038688650713</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>319.8906403995681</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="4"/>
+        <v>417.03110949488507</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="5"/>
+        <v>0.65637607073525983</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>9.1112763721237389E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>211</v>
       </c>
@@ -5159,8 +7744,28 @@
       <c r="H48">
         <v>20.136856999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>49.494258291047991</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>162.88802896829131</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="4"/>
+        <v>259.64420407679154</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="5"/>
+        <v>0.44220231367323198</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="6"/>
+        <v>7.5053341977101617E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -5185,8 +7790,28 @@
       <c r="H49">
         <v>77.311999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>5591.5004824562966</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>674.30596590010009</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="4"/>
+        <v>390797.82251451904</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="5"/>
+        <v>1.6203741200963132E-2</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="6"/>
+        <v>0.99993090576417176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>216</v>
       </c>
@@ -5211,8 +7836,28 @@
       <c r="H50" s="1">
         <v>0.99974200000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>2.5521055894272227</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>13.07846294130584</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="4"/>
+        <v>55.354524804390067</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="5"/>
+        <v>0.68856466175175657</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="6"/>
+        <v>0.31031352979630189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -5237,8 +7882,28 @@
       <c r="H51">
         <v>125954</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>1233391.3047151743</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>4605936.7753378004</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="4"/>
+        <v>2621697.1490035634</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="5"/>
+        <v>0.50176891470181084</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="6"/>
+        <v>3.0410801232276404E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>218</v>
       </c>
@@ -5263,8 +7928,28 @@
       <c r="H52">
         <v>73728</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>1084221.9164802011</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>3703658.5403496004</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>2243702.3770275526</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="5"/>
+        <v>0.45898598101845289</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="6"/>
+        <v>2.9606924035210928E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -5289,8 +7974,28 @@
       <c r="H53">
         <v>11873014</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>42187334.479157768</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>300227209.22710812</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="4"/>
+        <v>53104160.833975039</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="5"/>
+        <v>0.95621296055962246</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="6"/>
+        <v>1.8009128105138453E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>220</v>
       </c>
@@ -5315,8 +8020,28 @@
       <c r="H54">
         <v>5787648</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>15938778.495428689</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>97321470.524338797</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="4"/>
+        <v>25539156.914920233</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="5"/>
+        <v>0.82042765302393983</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="6"/>
+        <v>2.2924387689644669E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -5341,8 +8066,28 @@
       <c r="H55">
         <v>320864256</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>785953709.43696845</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>4205407230.7511044</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="4"/>
+        <v>1354054254.4654462</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="5"/>
+        <v>0.71894845024690524</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="6"/>
+        <v>2.4648206357288441E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>224</v>
       </c>
@@ -5367,8 +8112,28 @@
       <c r="H56">
         <v>160432128</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>392976854.71848422</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>2102703615.3755522</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="4"/>
+        <v>677027127.23272312</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="5"/>
+        <v>0.71894845024690524</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="6"/>
+        <v>2.4648206357288441E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>230</v>
       </c>
@@ -5393,8 +8158,28 @@
       <c r="H57" s="1">
         <v>9.7892799999999992E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>2.7443553586616661E-2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>0.12183955667381499</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="4"/>
+        <v>0.60810744482206858</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="5"/>
+        <v>0.59653321016910554</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="6"/>
+        <v>0.31701966108214424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>231</v>
       </c>
@@ -5419,8 +8204,28 @@
       <c r="H58" s="1">
         <v>8.1273600000000001E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <f t="shared" si="2"/>
+        <v>0.58891870913880329</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>0.73149330580180694</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>38.828650343992628</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="5"/>
+        <v>0.16689436267220947</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="6"/>
+        <v>0.94328551777015301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -5445,8 +8250,28 @@
       <c r="H59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f t="shared" si="2"/>
+        <v>0.36454645539512986</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>2.5985692286957356</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="4"/>
+        <v>0.13257633002782176</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="5"/>
+        <v>0.9577850952323621</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="6"/>
+        <v>5.2030660150587807E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>234</v>
       </c>
@@ -5471,8 +8296,28 @@
       <c r="H60" s="1">
         <v>6.5456609999999998E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <f t="shared" si="2"/>
+        <v>0.15658822626146035</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>0.43195294979285004</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="4"/>
+        <v>0.54838828694007546</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="5"/>
+        <v>0.37064999810632776</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="6"/>
+        <v>5.0104333406063656E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>235</v>
       </c>
@@ -5497,8 +8342,28 @@
       <c r="H61" s="1">
         <v>6.58934E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <f t="shared" si="2"/>
+        <v>2.3288699187513674E-2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>8.8450840839584988E-2</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="4"/>
+        <v>0.13824966088307</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="5"/>
+        <v>0.51032094966509012</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="6"/>
+        <v>8.4930770999881861E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>111</v>
       </c>
@@ -5523,8 +8388,28 @@
       <c r="H62">
         <v>11907072</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <f t="shared" si="2"/>
+        <v>33158495.971409317</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>194430095.37791759</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="4"/>
+        <v>54803796.421179563</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="5"/>
+        <v>0.78787138737463835</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="6"/>
+        <v>2.3646237340564251E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>249</v>
       </c>
@@ -5549,8 +8434,28 @@
       <c r="H63">
         <v>18385633</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <f t="shared" si="2"/>
+        <v>62805152.600139901</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>436702344.35546911</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="4"/>
+        <v>85650818.358423814</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="5"/>
+        <v>0.93427969652897658</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="6"/>
+        <v>1.9511131900250021E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>250</v>
       </c>
@@ -5575,8 +8480,28 @@
       <c r="H64">
         <v>15398813</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f t="shared" si="2"/>
+        <v>56776595.206355363</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>401180318.13672024</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="4"/>
+        <v>74109713.668816626</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="5"/>
+        <v>0.94941685210513826</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="6"/>
+        <v>1.8674630324564331E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>257</v>
       </c>
@@ -5601,8 +8526,28 @@
       <c r="H65">
         <v>160432128</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f t="shared" si="2"/>
+        <v>392976854.71848422</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>2102703615.3755522</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="4"/>
+        <v>677027127.23272312</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="5"/>
+        <v>0.71894845024690524</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="6"/>
+        <v>2.4648206357288441E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>259</v>
       </c>
@@ -5627,8 +8572,28 @@
       <c r="H66">
         <v>22413312</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <f t="shared" si="2"/>
+        <v>88679428.086378813</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>639358677.76298869</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="4"/>
+        <v>105826528.04746994</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="5"/>
+        <v>0.9687424778363497</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="6"/>
+        <v>1.7073316360390209E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>261</v>
       </c>
@@ -5653,8 +8618,28 @@
       <c r="H67">
         <v>1179648</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f t="shared" ref="I67:I82" si="7">SQRT(B67^2+C67^2+D67^2+E67^2+F67^2+G67^2+H67^2)</f>
+        <v>3355912.3034453685</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J82" si="8">B67*$B$2+C67*$C$2+D67*$D$2+E67*$E$2+F67*$F$2+G67*$G$2+H67*$H$2</f>
+        <v>16843286.346528001</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K82" si="9">B67*$B$3+C67*$C$3+D67*$D$3+E67*$E$3+F67*$F$3+G67*$G$3+H67*$H$3</f>
+        <v>5741230.5625834335</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L82" si="10">J67/I67/$I$2</f>
+        <v>0.67437721964400288</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M82" si="11">K67/I67/$I$3</f>
+        <v>2.4476009211116208E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>262</v>
       </c>
@@ -5679,8 +8664,28 @@
       <c r="H68">
         <v>185106432</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f t="shared" si="7"/>
+        <v>531079964.05163407</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="8"/>
+        <v>3181478031.0350409</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="9"/>
+        <v>859422321.92568469</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="10"/>
+        <v>0.80492547822540672</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="11"/>
+        <v>2.3152235722534577E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>263</v>
       </c>
@@ -5705,8 +8710,28 @@
       <c r="H69">
         <v>11796480</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f t="shared" si="7"/>
+        <v>45453494.127879232</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="8"/>
+        <v>231631786.30700159</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="9"/>
+        <v>72988565.68339552</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="10"/>
+        <v>0.68472714476630747</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="11"/>
+        <v>2.2973849850598631E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>268</v>
       </c>
@@ -5731,8 +8756,28 @@
       <c r="H70">
         <v>1462272</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <f t="shared" si="7"/>
+        <v>6804029.9336484401</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="8"/>
+        <v>48780403.905331202</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="9"/>
+        <v>3137475.592466319</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="10"/>
+        <v>0.96330949105734853</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="11"/>
+        <v>6.5972108355253703E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>269</v>
       </c>
@@ -5757,8 +8802,28 @@
       <c r="H71">
         <v>1179680</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <f t="shared" si="7"/>
+        <v>2889549.0308240145</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="8"/>
+        <v>15461112.972480001</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="9"/>
+        <v>5044748.5686452184</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="10"/>
+        <v>0.71894778198082587</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="11"/>
+        <v>2.4977886100168503E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>270</v>
       </c>
@@ -5783,8 +8848,28 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f t="shared" si="7"/>
+        <v>2532729.4032896603</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="8"/>
+        <v>5098792.4641596004</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="9"/>
+        <v>3776917.8277968941</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="10"/>
+        <v>0.27049871467416581</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="11"/>
+        <v>2.1335113971576791E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -5809,8 +8894,28 @@
       <c r="H73">
         <v>20.136399999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <f t="shared" si="7"/>
+        <v>49.493206528554246</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>162.8857476330642</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="9"/>
+        <v>259.05596633375444</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="10"/>
+        <v>0.44220551734206076</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="11"/>
+        <v>7.4884895960589004E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>273</v>
       </c>
@@ -5835,8 +8940,28 @@
       <c r="H74">
         <v>835999</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <f t="shared" si="7"/>
+        <v>2032828.5293546035</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="8"/>
+        <v>12931821.640908699</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="9"/>
+        <v>3099668.0774684139</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="10"/>
+        <v>0.85476281720139224</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="11"/>
+        <v>2.1815273732074782E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>274</v>
       </c>
@@ -5861,8 +8986,28 @@
       <c r="H75">
         <v>14.269983999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <f t="shared" si="7"/>
+        <v>30.071822701345507</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="8"/>
+        <v>110.79369066163909</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="9"/>
+        <v>125.40230728799445</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="10"/>
+        <v>0.49504187857792137</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="11"/>
+        <v>5.9661201908874056E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>276</v>
       </c>
@@ -5887,8 +9032,28 @@
       <c r="H76" s="1">
         <v>0.37725627</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f t="shared" si="7"/>
+        <v>0.86023900293000877</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="8"/>
+        <v>2.3798456850854941</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="9"/>
+        <v>19.145276708440267</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="10"/>
+        <v>0.37172034423733397</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="11"/>
+        <v>0.31841149761843429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>277</v>
       </c>
@@ -5913,8 +9078,28 @@
       <c r="H77" s="1">
         <v>2.5907000000000003E-4</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <f t="shared" si="7"/>
+        <v>6.6338109328664935E-2</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="8"/>
+        <v>2.6904838664200004E-3</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="9"/>
+        <v>4.6360748795859532</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="10"/>
+        <v>5.4494662246563283E-3</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="11"/>
+        <v>0.99984706325738637</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>278</v>
       </c>
@@ -5939,8 +9124,28 @@
       <c r="H78" s="1">
         <v>6.1696929999999997E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <f t="shared" si="7"/>
+        <v>0.15247495431843783</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="8"/>
+        <v>0.50125644759299104</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="9"/>
+        <v>0.39683552472845585</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="10"/>
+        <v>0.44172107745251715</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>3.7235591279619139E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>280</v>
       </c>
@@ -5965,8 +9170,28 @@
       <c r="H79" s="1">
         <v>0.27409338999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <f t="shared" si="7"/>
+        <v>0.86953373395542077</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="8"/>
+        <v>5.7398442436400199</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="9"/>
+        <v>9.3784615433549732</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="10"/>
+        <v>0.88695244458666067</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>0.15430904725288641</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>281</v>
       </c>
@@ -5991,8 +9216,28 @@
       <c r="H80" s="1">
         <v>0.18528243999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <f t="shared" si="7"/>
+        <v>0.3356439297100603</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="8"/>
+        <v>1.004327985094378</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="9"/>
+        <v>0.64788600256391682</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="10"/>
+        <v>0.4020531137523814</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>2.761633379123022E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -6017,8 +9262,28 @@
       <c r="H81">
         <v>6.6542300000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <f t="shared" si="7"/>
+        <v>12.927569613646025</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="8"/>
+        <v>44.9986870891587</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="9"/>
+        <v>41.649118285884036</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="10"/>
+        <v>0.46770242364062686</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="11"/>
+        <v>4.6093018518721905E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>84</v>
       </c>
@@ -6042,6 +9307,26 @@
       </c>
       <c r="H82" s="3">
         <v>13543365</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="7"/>
+        <v>74424056.420685589</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="8"/>
+        <v>553894017.41093922</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="9"/>
+        <v>70000000</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="11"/>
+        <v>1.3456463137890043E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6051,48 +9336,2620 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.99969779603947662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.98617663326024418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.98617281651045507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.96798057434103302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.94867176950690968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.93174740081522411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.93009525581066665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.92381162364440494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.914413728171377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11">
+        <v>0.88480356003554128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12">
+        <v>0.86721080914127935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13">
+        <v>0.82671295123429789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14">
+        <v>0.82578936875986675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15">
+        <v>0.76795799123061159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16">
+        <v>0.76190245060961448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17">
+        <v>0.69900971588131811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18">
+        <v>0.68131625661091566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19">
+        <v>0.66193962050221578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20">
+        <v>0.66189958563157703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21">
+        <v>0.66189927556765082</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22">
+        <v>0.66189927556765082</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23">
+        <v>0.66189927556765082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24">
+        <v>0.66189643460442538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25">
+        <v>0.66189572404854125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26">
+        <v>0.65554184559652595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27">
+        <v>0.65554184559652595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28">
+        <v>0.65215728950137841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B29">
+        <v>0.65057747758118145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30">
+        <v>0.64742333645633465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31">
+        <v>0.62286235631773856</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32">
+        <v>0.62241070203411586</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33">
+        <v>0.61539042996758242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34">
+        <v>0.61326049628689516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35">
+        <v>0.61322584456426699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36">
+        <v>0.61322584456426699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37">
+        <v>0.61322584456426699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38">
+        <v>0.61322306603655841</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39">
+        <v>0.5781349130395913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40">
+        <v>0.54330993553263296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41">
+        <v>0.54330993553263296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42">
+        <v>0.54308352661896764</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43">
+        <v>0.51341822865451281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44">
+        <v>0.5043009940467984</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45">
+        <v>0.44499186839979948</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46">
+        <v>0.44246649093502582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47">
+        <v>0.42481326303752504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48">
+        <v>0.40218262162969365</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>280</v>
+      </c>
+      <c r="B49">
+        <v>0.38976203160015177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50">
+        <v>0.38683891807527082</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51">
+        <v>0.38126059177165106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52">
+        <v>0.38126059177165106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53">
+        <v>0.37707383780708253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54">
+        <v>0.36580484473439201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55">
+        <v>0.36205300198619217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56">
+        <v>0.35761667165318689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57">
+        <v>0.35761667165318689</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58">
+        <v>0.35761601201092935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59">
+        <v>0.35760915754479217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60">
+        <v>0.35742500139759648</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61">
+        <v>0.35709814726188427</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62">
+        <v>0.34988752831369285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63">
+        <v>0.32189459269823401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64">
+        <v>0.31826513758959335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65">
+        <v>0.30998430471621757</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>276</v>
+      </c>
+      <c r="B66">
+        <v>0.30816808942094037</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67">
+        <v>0.30708211660078899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68">
+        <v>0.30492485420138082</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69">
+        <v>0.2948734348068639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70">
+        <v>0.28680634502053437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71">
+        <v>0.27404110998229236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72">
+        <v>0.13547908178007798</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73">
+        <v>0.13547908178007798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>177</v>
+      </c>
+      <c r="B74">
+        <v>0.13547908178007798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75">
+        <v>0.13547908178007798</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76">
+        <v>0.13547908178007798</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>270</v>
+      </c>
+      <c r="B77">
+        <v>0.13547908178007798</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78">
+        <v>4.0648698104780038E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79">
+        <v>2.7108311410552048E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B82">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.99561774133897529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.9687424778363497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.96771764091958745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.96330949105734853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.95899554734053594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.9577850952323621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.95621296055962246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.94941685210513826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.94901707542323854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11">
+        <v>0.93427969652897658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12">
+        <v>0.89973222878873138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13">
+        <v>0.88695244458666067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14">
+        <v>0.85476281720139224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15">
+        <v>0.82042765302393983</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B16">
+        <v>0.80492547822540672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17">
+        <v>0.78894169517491053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18">
+        <v>0.78787138737463835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19">
+        <v>0.78004415291678997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <v>0.75392987467049932</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21">
+        <v>0.73996423140513368</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22">
+        <v>0.71894966274484617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23">
+        <v>0.71894845024690524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24">
+        <v>0.71894845024690524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25">
+        <v>0.71894845024690524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26">
+        <v>0.71894778198082587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27">
+        <v>0.71894643246438994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28">
+        <v>0.71756379103290668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29">
+        <v>0.71435062665238602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30">
+        <v>0.71435062665238602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31">
+        <v>0.70480712450686367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32">
+        <v>0.70033099976497215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33">
+        <v>0.69635570102224564</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34">
+        <v>0.69635570102224564</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35">
+        <v>0.68918554777400431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>216</v>
+      </c>
+      <c r="B36">
+        <v>0.68856466175175657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37">
+        <v>0.68472714476630747</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38">
+        <v>0.67437721964400288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39">
+        <v>0.66712435969412254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40">
+        <v>0.66647010630739634</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41">
+        <v>0.65637607073525983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42">
+        <v>0.60314729995517191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43">
+        <v>0.59653321016910554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44">
+        <v>0.59121412558277697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45">
+        <v>0.58749088663186455</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46">
+        <v>0.55811111856848972</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47">
+        <v>0.55193251950753119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48">
+        <v>0.53697696903688352</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49">
+        <v>0.52572634589885281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50">
+        <v>0.51032094966509012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51">
+        <v>0.50176891470181084</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52">
+        <v>0.49504187857792137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>282</v>
+      </c>
+      <c r="B53">
+        <v>0.46770242364062686</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54">
+        <v>0.46716283292120847</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55">
+        <v>0.462306078796826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>157</v>
+      </c>
+      <c r="B56">
+        <v>0.462306078796826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57">
+        <v>0.45898598101845289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58">
+        <v>0.45218101304406288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59">
+        <v>0.44255439761139242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>271</v>
+      </c>
+      <c r="B60">
+        <v>0.44220551734206076</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61">
+        <v>0.44220549438795015</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62">
+        <v>0.44220231367323198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>278</v>
+      </c>
+      <c r="B63">
+        <v>0.44172107745251715</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64">
+        <v>0.44165996295218779</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B65">
+        <v>0.43983952551574695</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66">
+        <v>0.41071795350961315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67">
+        <v>0.4020531137523814</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68">
+        <v>0.40131942917737229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>276</v>
+      </c>
+      <c r="B69">
+        <v>0.37172034423733397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70">
+        <v>0.37064999810632776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71">
+        <v>0.32484118207017237</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72">
+        <v>0.32108640480545964</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73">
+        <v>0.31552766803072352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>270</v>
+      </c>
+      <c r="B74">
+        <v>0.27049871467416581</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75">
+        <v>0.27027718620329694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76">
+        <v>0.26070982954166988</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77">
+        <v>0.16689436267220947</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78">
+        <v>1.6203741200963132E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>277</v>
+      </c>
+      <c r="B79">
+        <v>5.4494662246563283E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B82">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.99993643924330455</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.99989787011214404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.84673367201565541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.84389917062822095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.76312689014727264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.72449631803518022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.68224286532585432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.67031576197127207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.64608639967821235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.58016947430706023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12">
+        <v>0.48659118766262294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13">
+        <v>0.44770523979080645</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14">
+        <v>0.40264102671527535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15">
+        <v>0.3943255460928457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>0.39432432167781784</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17">
+        <v>0.39432432167781784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18">
+        <v>0.39432432167781784</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19">
+        <v>0.39431091539459795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20">
+        <v>0.39202471298169372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21">
+        <v>0.25340455224310654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22">
+        <v>0.17047937645519015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23">
+        <v>0.17047937645519015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24">
+        <v>0.14312771080725786</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25">
+        <v>0.13529446845210208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26">
+        <v>0.10715298718015406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27">
+        <v>0.10667531987225601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28">
+        <v>0.1047177749987501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29">
+        <v>9.0378354975971409E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30">
+        <v>9.0378354975971409E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31">
+        <v>7.1318630560166324E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32">
+        <v>7.103657714002054E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33">
+        <v>6.2542405216041999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34">
+        <v>6.2542405216041999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B35">
+        <v>5.8768353155663776E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36">
+        <v>5.8351234513042832E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37">
+        <v>5.8254719146283572E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38">
+        <v>5.8254719146283572E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39">
+        <v>5.8254296656650481E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40">
+        <v>5.4676609514057582E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41">
+        <v>4.8190909158282509E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B42">
+        <v>4.7145415146589716E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43">
+        <v>3.4292062779946224E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44">
+        <v>3.3537352223733108E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45">
+        <v>2.7694981491279705E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46">
+        <v>2.4819491902105813E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47">
+        <v>2.2615332767214641E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48">
+        <v>1.9185128476310136E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49">
+        <v>1.8945686789999434E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50">
+        <v>1.8804556482037774E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>195</v>
+      </c>
+      <c r="B51">
+        <v>1.8192370529568149E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52">
+        <v>1.8062037859997507E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53">
+        <v>1.804252475624147E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54">
+        <v>1.797095063330326E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55">
+        <v>1.7968179453325569E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56">
+        <v>1.7862641014510888E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>224</v>
+      </c>
+      <c r="B57">
+        <v>1.7862641014510888E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58">
+        <v>1.7862641014510888E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59">
+        <v>1.7644615165576857E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60">
+        <v>1.7603840551726379E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61">
+        <v>1.7222408306210361E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>111</v>
+      </c>
+      <c r="B62">
+        <v>1.667446177819723E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63">
+        <v>1.5744166753064087E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64">
+        <v>1.5460738144441504E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65">
+        <v>1.4410665972059785E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66">
+        <v>1.4133022230805979E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67">
+        <v>1.3479687166248618E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68">
+        <v>1.3015573476765043E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69">
+        <v>1.2833741058323821E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70">
+        <v>1.2183994500869324E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71">
+        <v>9.7591914963202405E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>268</v>
+      </c>
+      <c r="B72">
+        <v>9.7339232896222708E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73">
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74">
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75">
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>179</v>
+      </c>
+      <c r="B76">
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77">
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>270</v>
+      </c>
+      <c r="B78">
+        <v>8.3238687809258586E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>194</v>
+      </c>
+      <c r="B79">
+        <v>6.4885749630905574E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B82">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.99993090576417176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.99984706325738637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.94328551777015301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.84313613336230608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.80086170484687069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7">
+        <v>0.65124047384468597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8">
+        <v>0.40177243126595746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9">
+        <v>0.40074210741276528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10">
+        <v>0.31965856700323819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11">
+        <v>0.31841149761843429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12">
+        <v>0.31701966108214424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13">
+        <v>0.31071960136948257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14">
+        <v>0.31031352979630189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15">
+        <v>0.3021880152578903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16">
+        <v>0.27869149915233032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17">
+        <v>0.27869149915233032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18">
+        <v>0.22396576426935111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19">
+        <v>0.22118843529799792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20">
+        <v>0.16618631200335415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21">
+        <v>0.15430904725288641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22">
+        <v>0.11182752834309304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23">
+        <v>0.10521363556636715</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24">
+        <v>9.1112763721237389E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25">
+        <v>8.4930770999881861E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26">
+        <v>7.7848738229554501E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27">
+        <v>7.5053341977101617E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28">
+        <v>7.4885117135500501E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29">
+        <v>7.4884895960589004E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30">
+        <v>6.6448280315978631E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31">
+        <v>6.241760471615565E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>274</v>
+      </c>
+      <c r="B32">
+        <v>5.9661201908874056E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33">
+        <v>5.7976500330184866E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34">
+        <v>5.7976500330184866E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35">
+        <v>5.0524563245028881E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36">
+        <v>5.0104333406063656E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>282</v>
+      </c>
+      <c r="B37">
+        <v>4.6093018518721905E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38">
+        <v>4.0653667610907405E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39">
+        <v>3.7235591279619139E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40">
+        <v>3.0410801232276404E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>218</v>
+      </c>
+      <c r="B41">
+        <v>2.9606924035210928E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42">
+        <v>2.761633379123022E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43">
+        <v>2.6026926196403725E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44">
+        <v>2.5810221994926982E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45">
+        <v>2.5426236435039967E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46">
+        <v>2.5023762326832805E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47">
+        <v>2.4979275980558092E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48">
+        <v>2.4977886100168503E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49">
+        <v>2.4648206357288441E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50">
+        <v>2.4648206357288441E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51">
+        <v>2.4648206357288441E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52">
+        <v>2.4476009211116208E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <v>2.4414923074212405E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54">
+        <v>2.3646237340564251E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55">
+        <v>2.3301582523210254E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56">
+        <v>2.3152235722534577E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57">
+        <v>2.3107353981580328E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58">
+        <v>2.2973849850598631E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59">
+        <v>2.2924387689644669E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60">
+        <v>2.2546654928094111E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61">
+        <v>2.1900962537594659E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>273</v>
+      </c>
+      <c r="B62">
+        <v>2.1815273732074782E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63">
+        <v>2.1341109205818987E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64">
+        <v>2.1335113971576791E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65">
+        <v>1.9511131900250021E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>250</v>
+      </c>
+      <c r="B66">
+        <v>1.8674630324564331E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67">
+        <v>1.8009128105138453E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68">
+        <v>1.7653300084889717E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>259</v>
+      </c>
+      <c r="B69">
+        <v>1.7073316360390209E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70">
+        <v>1.6824862954237404E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71">
+        <v>1.4027919522423528E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72">
+        <v>1.4027919522423528E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73">
+        <v>1.392533386689572E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B74">
+        <v>1.3502253420723209E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75">
+        <v>1.3456463137890043E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76">
+        <v>9.8860791569340412E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77">
+        <v>8.4427340177288673E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>268</v>
+      </c>
+      <c r="B78">
+        <v>6.5972108355253703E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79">
+        <v>5.2030660150587807E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80">
+        <v>4.7140753165875095E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B82">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6101,7 +11958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I534"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B223" sqref="B223:I223"/>
     </sheetView>
   </sheetViews>

--- a/Nvprof summary/similarity results/Convolution-Similarity_new.xlsx
+++ b/Nvprof summary/similarity results/Convolution-Similarity_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-12220" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics1" sheetId="12" r:id="rId1"/>
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="D58" workbookViewId="0">
-      <selection activeCell="M1" activeCellId="2" sqref="A1:A1048576 L1:L1048576 M1:M1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="A13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2219,28 +2219,28 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1.139033</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.77523699999999995</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.39800999999999997</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.39781300000000003</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.351128</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.39799800000000002</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.397976</v>
       </c>
       <c r="I11">
@@ -2265,28 +2265,28 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>0.29956899999999997</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.27439000000000002</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.26713199999999998</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.26713199999999998</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.230103</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.26713199999999998</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.26713199999999998</v>
       </c>
       <c r="I12">
@@ -2311,28 +2311,28 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>3.8614000000000002E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.20122000000000001</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>5.7798000000000002E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>5.7798000000000002E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>4.9785999999999997E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>5.7798000000000002E-2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>5.7798000000000002E-2</v>
       </c>
       <c r="I13">
@@ -4565,28 +4565,28 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>17104896</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>5904</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>11453952</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>11453952</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>13297152</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
         <v>11453952</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="3">
         <v>11453952</v>
       </c>
       <c r="I62">
@@ -4611,28 +4611,28 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>36587944</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>10481</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>16012741</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>16010487</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>17966153</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>16012604</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>16012349</v>
       </c>
       <c r="I63">
@@ -5536,8 +5536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" activeCellId="1" sqref="A1:A1048576 L1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6018,28 +6019,28 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1.7701290000000001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>2.697721</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.47161700000000001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.493421</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.47007199999999999</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.46439799999999998</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.54409399999999997</v>
       </c>
       <c r="I11">
@@ -6064,28 +6065,28 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>0.18374699999999999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.28461500000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.39942499999999997</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.41741699999999998</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.37365599999999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.39612199999999997</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.43034099999999997</v>
       </c>
       <c r="I12">
@@ -6110,28 +6111,28 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>3.9756E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.138462</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>2.2988999999999999E-2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>2.4024E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>4.8162999999999997E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>2.2161E-2</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>5.5469999999999998E-2</v>
       </c>
       <c r="I13">
@@ -8364,28 +8365,28 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="3">
         <v>16651776</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>7020</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>12828672</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>12275712</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>13713408</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
         <v>13307904</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="3">
         <v>11907072</v>
       </c>
       <c r="I62">
@@ -8410,28 +8411,28 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="3">
         <v>46127572</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>25958</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>18878891</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>18332806</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>20159691</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>19488065</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>18385633</v>
       </c>
       <c r="I63">
